--- a/Meta2_input_file_v3.xlsx
+++ b/Meta2_input_file_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cm19ljc\Documents\GitHub\MS-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827FA8F5-BAA9-4BB3-A416-55968B4EDE56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A382C0-C682-4426-8829-CCD660ADEB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{4E7EF13A-7E46-4B07-B782-DF1F2887ACB6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4E7EF13A-7E46-4B07-B782-DF1F2887ACB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -500,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6884F279-2674-498F-AEF2-F7BB1DCF9FFF}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -629,7 +629,7 @@
         <v>30</v>
       </c>
       <c r="B13">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -680,11 +680,14 @@
         <v>31</v>
       </c>
       <c r="B19">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
         <v>32</v>
       </c>
+    </row>
+    <row r="20" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Meta2_input_file_v3.xlsx
+++ b/Meta2_input_file_v3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cm19ljc\Documents\GitHub\MS-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A382C0-C682-4426-8829-CCD660ADEB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C04570-7191-44C0-93E6-D1756B84CAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4E7EF13A-7E46-4B07-B782-DF1F2887ACB6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -51,18 +51,12 @@
     <t>Tolerance (Da)</t>
   </si>
   <si>
-    <t>D:\WORK\20230710 DOE_CTB H6_5M_DAmp\24h</t>
-  </si>
-  <si>
     <t>Start Scan</t>
   </si>
   <si>
     <t>End Scan</t>
   </si>
   <si>
-    <t>Temperature</t>
-  </si>
-  <si>
     <t>Parameter</t>
   </si>
   <si>
@@ -117,9 +111,6 @@
     <t xml:space="preserve">Peak matching tolerance </t>
   </si>
   <si>
-    <t>pH</t>
-  </si>
-  <si>
     <t>Config massbins</t>
   </si>
   <si>
@@ -136,13 +127,73 @@
   </si>
   <si>
     <t>number of iterations of deconvolution algorithm</t>
+  </si>
+  <si>
+    <t>240126 DoE Nexp 1</t>
+  </si>
+  <si>
+    <t>240126 DoE Nexp 2</t>
+  </si>
+  <si>
+    <t>240126 DoE Nexp 3</t>
+  </si>
+  <si>
+    <t>240126 DoE Nexp 4</t>
+  </si>
+  <si>
+    <t>240126 DoE Nexp 5</t>
+  </si>
+  <si>
+    <t>240126 DoE Nexp 6</t>
+  </si>
+  <si>
+    <t>240126 DoE Nexp 7</t>
+  </si>
+  <si>
+    <t>240126 DoE Nexp 8</t>
+  </si>
+  <si>
+    <t>240126 DoE Nexp 9</t>
+  </si>
+  <si>
+    <t>GVSEYG</t>
+  </si>
+  <si>
+    <t>H5D</t>
+  </si>
+  <si>
+    <t>Color CTB-H6</t>
+  </si>
+  <si>
+    <t>Color CTB-LPETGVSEYG</t>
+  </si>
+  <si>
+    <t>Color CTB-LPET</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>Color Random</t>
+  </si>
+  <si>
+    <t>pink</t>
+  </si>
+  <si>
+    <t>E:\mass spectra\DoE experiment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -155,6 +206,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -500,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6884F279-2674-498F-AEF2-F7BB1DCF9FFF}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -515,13 +571,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -529,12 +585,12 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>427</v>
@@ -542,7 +598,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>502</v>
@@ -550,7 +606,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>13597.42</v>
@@ -558,7 +614,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>13151.97</v>
@@ -566,7 +622,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>12559.36</v>
@@ -580,45 +636,45 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>10000</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>17000</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -626,7 +682,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B13">
         <v>0.05</v>
@@ -634,26 +690,26 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>750</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -661,7 +717,7 @@
     </row>
     <row r="17" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>100</v>
@@ -669,7 +725,7 @@
     </row>
     <row r="18" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>100</v>
@@ -677,17 +733,46 @@
     </row>
     <row r="19" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -696,10 +781,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B83FD0-BD81-4C2A-8172-3925B5BB978B}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -715,16 +800,143 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>